--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3640.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3640.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.31281904746517</v>
+        <v>0.8624605536460876</v>
       </c>
       <c r="B1">
-        <v>1.681061740065023</v>
+        <v>1.716741323471069</v>
       </c>
       <c r="C1">
-        <v>1.82143282788394</v>
+        <v>2.606055736541748</v>
       </c>
       <c r="D1">
-        <v>2.060805462951286</v>
+        <v>1.531292319297791</v>
       </c>
       <c r="E1">
-        <v>2.520741284774585</v>
+        <v>0.8207937479019165</v>
       </c>
     </row>
   </sheetData>
